--- a/biology/Biochimie/Acide_5,10-méthényltétrahydrofolique/Acide_5,10-méthényltétrahydrofolique.xlsx
+++ b/biology/Biochimie/Acide_5,10-méthényltétrahydrofolique/Acide_5,10-méthényltétrahydrofolique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_5,10-m%C3%A9th%C3%A9nylt%C3%A9trahydrofolique</t>
+          <t>Acide_5,10-méthényltétrahydrofolique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide 5,10-méthényltétrahydrofolate est un dérivé de l'acide folique, ou vitamine B9. Sa forme biologiquement active est la forme ionique (déprotonée) de l'acide, le 5,10-méthényltétrahydrofolate, couramment abrégé en 5,10-CH=THF, une coenzyme qui donne et reçoit des groupes méthényle –CH=.
-Il est issu du 5,10-méthylènetétrahydrofolate par la méthylènetétrahydrofolate déshydrogénase NAD+-dépendante ou la méthylènetétrahydrofolate déshydrogénase NADP+-dépendante[2].
+Il est issu du 5,10-méthylènetétrahydrofolate par la méthylènetétrahydrofolate déshydrogénase NAD+-dépendante ou la méthylènetétrahydrofolate déshydrogénase NADP+-dépendante.
 Il peut également être produit comme intermédiaire dans le catabolisme de l'histidine par la formiminotransférase cyclodésaminase à partir de l'acide 5-formiminotétrahydrofolique.
 Le 5,10-CH=THF est un substrat de la méthényltétrahydrofolate cyclohydrolase, qui le convertit en acide 10-formyltétrahydrofolique.
 </t>
